--- a/Чертежи и расчеты/Лист Microsoft Excel.xlsx
+++ b/Чертежи и расчеты/Лист Microsoft Excel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Маркировка жил" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Спецификация слаботочка" sheetId="3" r:id="rId3"/>
     <sheet name="Спецификация ЛВС" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>синий</t>
   </si>
@@ -176,6 +176,30 @@
   </si>
   <si>
     <t>https://skat-ups.ru/catalog/smarthouse/rm-02-din/</t>
+  </si>
+  <si>
+    <t>Датчик влажности №1</t>
+  </si>
+  <si>
+    <t>Датчик влажности №2</t>
+  </si>
+  <si>
+    <t>Датчик влажности №3</t>
+  </si>
+  <si>
+    <t>Датчик влажности №4</t>
+  </si>
+  <si>
+    <t>Вводной щит</t>
+  </si>
+  <si>
+    <t>Протечка</t>
+  </si>
+  <si>
+    <t>Датчик движения</t>
+  </si>
+  <si>
+    <t>Резервное питание</t>
   </si>
 </sst>
 </file>
@@ -422,7 +446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +481,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -750,15 +774,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,14 +864,78 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="14">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4">
-        <f>SUM(B2:B12)</f>
-        <v>320</v>
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4">
+        <f>SUM(B2:B20)</f>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
